--- a/server/apps/cmdb/model_migrate/model_config.xlsx
+++ b/server/apps/cmdb/model_migrate/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15440" tabRatio="896"/>
+    <workbookView windowWidth="28800" windowHeight="11780" tabRatio="896" firstSheet="43" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9254" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9253" uniqueCount="1052">
   <si>
     <t>模型分类ID</t>
   </si>
@@ -2046,9 +2046,6 @@
   </si>
   <si>
     <t>[{"id":"1","name":"业务应用"},{"id":"2","name":"数据库"},{"id":"3","name":"中间件"},{"id":"4","name":"其他"}]</t>
-  </si>
-  <si>
-    <t>ß</t>
   </si>
   <si>
     <t>端口</t>
@@ -4463,7 +4460,7 @@
   <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -5279,7 +5276,7 @@
         <v>535</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -5301,10 +5298,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -5351,10 +5348,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>887</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>289</v>
@@ -5379,7 +5376,7 @@
         <v>506</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>289</v>
@@ -5404,7 +5401,7 @@
         <v>508</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>289</v>
@@ -5429,7 +5426,7 @@
         <v>329</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>289</v>
@@ -5476,10 +5473,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>289</v>
@@ -5501,10 +5498,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>289</v>
@@ -5526,10 +5523,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>289</v>
@@ -5551,10 +5548,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>289</v>
@@ -5576,10 +5573,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>289</v>
@@ -6056,10 +6053,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -6082,10 +6079,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -6189,7 +6186,7 @@
         <v>535</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -6238,7 +6235,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>510</v>
@@ -6264,10 +6261,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>289</v>
@@ -6293,7 +6290,7 @@
         <v>508</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>289</v>
@@ -6319,7 +6316,7 @@
         <v>299</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>289</v>
@@ -6345,7 +6342,7 @@
         <v>487</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>289</v>
@@ -6368,10 +6365,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>289</v>
@@ -6394,10 +6391,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>289</v>
@@ -6420,10 +6417,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>289</v>
@@ -6446,10 +6443,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>917</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>289</v>
@@ -6472,10 +6469,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>289</v>
@@ -6927,10 +6924,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>289</v>
@@ -6953,10 +6950,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -7083,10 +7080,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -7112,7 +7109,7 @@
         <v>506</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>289</v>
@@ -7135,10 +7132,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>923</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>289</v>
@@ -7216,7 +7213,7 @@
         <v>299</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>289</v>
@@ -7242,7 +7239,7 @@
         <v>487</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>289</v>
@@ -7265,10 +7262,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>289</v>
@@ -7720,10 +7717,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>289</v>
@@ -7746,10 +7743,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -7850,10 +7847,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -7876,10 +7873,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>927</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -7902,10 +7899,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>929</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>289</v>
@@ -7928,10 +7925,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>289</v>
@@ -7954,10 +7951,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>289</v>
@@ -7980,10 +7977,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>289</v>
@@ -8006,10 +8003,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>289</v>
@@ -8032,10 +8029,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>939</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>289</v>
@@ -8487,10 +8484,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>289</v>
@@ -8565,10 +8562,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -8591,10 +8588,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -8617,10 +8614,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -8643,10 +8640,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -8672,7 +8669,7 @@
         <v>541</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>289</v>
@@ -9077,10 +9074,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>289</v>
@@ -9155,10 +9152,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -9181,10 +9178,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -9207,10 +9204,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -9236,7 +9233,7 @@
         <v>541</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -9643,10 +9640,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>289</v>
@@ -9669,10 +9666,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -9695,10 +9692,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>952</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -9773,7 +9770,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>547</v>
@@ -9799,7 +9796,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>548</v>
@@ -9880,7 +9877,7 @@
         <v>353</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>289</v>
@@ -9929,10 +9926,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>289</v>
@@ -10391,10 +10388,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>289</v>
@@ -10498,7 +10495,7 @@
         <v>353</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -10524,7 +10521,7 @@
         <v>484</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -10547,10 +10544,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>961</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -10573,10 +10570,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>289</v>
@@ -11444,10 +11441,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>289</v>
@@ -11548,10 +11545,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -11600,10 +11597,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>328</v>
@@ -11626,10 +11623,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>328</v>
@@ -12292,10 +12289,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>289</v>
@@ -13036,7 +13033,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -16197,7 +16194,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -16584,7 +16581,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -17750,7 +17747,7 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D3" t="s">
         <v>376</v>
@@ -17768,7 +17765,7 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D4" t="s">
         <v>376</v>
@@ -17786,7 +17783,7 @@
         <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D5" t="s">
         <v>376</v>
@@ -17804,7 +17801,7 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D6" t="s">
         <v>376</v>
@@ -17822,7 +17819,7 @@
         <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D7" t="s">
         <v>376</v>
@@ -18012,7 +18009,7 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D3" t="s">
         <v>376</v>
@@ -18249,7 +18246,7 @@
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D3" t="s">
         <v>405</v>
@@ -19013,10 +19010,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B3" t="s">
         <v>974</v>
-      </c>
-      <c r="B3" t="s">
-        <v>975</v>
       </c>
       <c r="C3" t="s">
         <v>404</v>
@@ -20156,10 +20153,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>977</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>289</v>
@@ -20554,7 +20551,7 @@
         <v>506</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -20599,10 +20596,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>289</v>
@@ -20626,7 +20623,7 @@
         <v>469</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>289</v>
@@ -20647,10 +20644,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>983</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>289</v>
@@ -20671,10 +20668,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>985</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>289</v>
@@ -20695,10 +20692,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>289</v>
@@ -20719,10 +20716,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>289</v>
@@ -21018,10 +21015,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -21042,10 +21039,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -21066,10 +21063,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>995</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -21114,10 +21111,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -21464,7 +21461,7 @@
         <v>506</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -21485,10 +21482,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -21509,10 +21506,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -21533,10 +21530,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -21856,10 +21853,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1003</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -22203,10 +22200,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -22230,7 +22227,7 @@
         <v>398</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -22251,10 +22248,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -22275,10 +22272,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1010</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -22299,10 +22296,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1012</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -22646,7 +22643,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>273</v>
@@ -22697,7 +22694,7 @@
         <v>329</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>289</v>
@@ -22718,10 +22715,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -23017,10 +23014,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -23340,10 +23337,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -23367,7 +23364,7 @@
         <v>535</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -23391,7 +23388,7 @@
         <v>506</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -23436,10 +23433,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -23460,10 +23457,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>289</v>
@@ -23824,10 +23821,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -23848,10 +23845,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -23872,10 +23869,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -23944,10 +23941,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>289</v>
@@ -23971,7 +23968,7 @@
         <v>469</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>289</v>
@@ -23992,10 +23989,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>289</v>
@@ -28548,7 +28545,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>381</v>
@@ -28905,7 +28902,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>456</v>
@@ -28953,7 +28950,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>550</v>
@@ -29282,7 +29279,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>456</v>
@@ -29330,7 +29327,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>550</v>
@@ -29357,7 +29354,7 @@
         <v>482</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -29429,7 +29426,7 @@
         <v>476</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>289</v>
@@ -29450,10 +29447,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>289</v>
@@ -29755,7 +29752,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>466</v>
@@ -29806,7 +29803,7 @@
         <v>476</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -29827,10 +29824,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -30156,7 +30153,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>466</v>
@@ -30183,7 +30180,7 @@
         <v>476</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -30204,10 +30201,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>289</v>
@@ -30228,10 +30225,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -30252,10 +30249,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -32158,7 +32155,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>381</v>
@@ -32515,10 +32512,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -32539,7 +32536,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>580</v>
@@ -32563,10 +32560,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>289</v>
@@ -32590,7 +32587,7 @@
         <v>508</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>289</v>
@@ -32614,7 +32611,7 @@
         <v>525</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>328</v>
@@ -32635,10 +32632,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>328</v>
@@ -32686,7 +32683,7 @@
         <v>487</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>328</v>
@@ -32982,10 +32979,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1047</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -33006,7 +33003,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>459</v>
@@ -33054,10 +33051,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1050</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>328</v>
@@ -33081,7 +33078,7 @@
         <v>525</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>328</v>
@@ -33102,10 +33099,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>328</v>
@@ -33153,7 +33150,7 @@
         <v>487</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>328</v>
@@ -33452,7 +33449,7 @@
         <v>454</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>328</v>
@@ -33476,7 +33473,7 @@
         <v>487</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>328</v>
@@ -33521,7 +33518,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>453</v>
@@ -33799,7 +33796,7 @@
         <v>525</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>328</v>
@@ -51701,13 +51698,13 @@
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.2307692307692" customWidth="1"/>
     <col min="2" max="2" width="19.8653846153846" customWidth="1"/>
@@ -52012,16 +52009,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="M19" t="s">
-        <v>616</v>
-      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1"/>
@@ -52259,7 +52253,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -52308,10 +52302,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -52334,10 +52328,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -52360,10 +52354,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -52386,10 +52380,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -52412,10 +52406,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -52438,10 +52432,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -52464,10 +52458,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -52490,10 +52484,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -52516,10 +52510,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -52542,10 +52536,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>289</v>
@@ -52568,10 +52562,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>289</v>
@@ -52594,10 +52588,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>289</v>
@@ -53048,7 +53042,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -53097,10 +53091,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -53123,10 +53117,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -53149,10 +53143,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -53175,10 +53169,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -53201,10 +53195,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -53227,10 +53221,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -53680,7 +53674,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -53729,10 +53723,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -53755,10 +53749,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -53781,10 +53775,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -53807,10 +53801,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -53833,10 +53827,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -53859,10 +53853,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -54312,7 +54306,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -54361,10 +54355,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -54387,10 +54381,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -54413,10 +54407,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -54439,10 +54433,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -54892,7 +54886,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -54941,10 +54935,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -54967,10 +54961,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -54993,10 +54987,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -55019,10 +55013,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -55045,10 +55039,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -55071,10 +55065,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -55097,10 +55091,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -55123,10 +55117,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -55576,7 +55570,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -55625,10 +55619,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -55651,10 +55645,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -55677,10 +55671,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -55703,10 +55697,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -55729,7 +55723,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>386</v>
@@ -55755,10 +55749,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -55781,10 +55775,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -55807,10 +55801,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -55833,10 +55827,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -56679,7 +56673,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -57155,7 +57149,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -57204,10 +57198,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -57230,10 +57224,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -57256,10 +57250,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -57282,10 +57276,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -57308,10 +57302,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -57334,10 +57328,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -57360,10 +57354,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -57386,10 +57380,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -57839,7 +57833,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -57888,10 +57882,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -57914,10 +57908,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -57940,10 +57934,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -57966,10 +57960,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -57992,10 +57986,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -58018,10 +58012,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -58044,10 +58038,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -58070,10 +58064,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -58096,10 +58090,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -58122,10 +58116,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>289</v>
@@ -58148,10 +58142,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>289</v>
@@ -58174,10 +58168,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>289</v>
@@ -58200,10 +58194,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>289</v>
@@ -58653,7 +58647,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -58702,10 +58696,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -58728,10 +58722,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -58754,10 +58748,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -58780,10 +58774,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -58806,10 +58800,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -58832,10 +58826,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -58858,10 +58852,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -58884,10 +58878,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -58910,10 +58904,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -58936,10 +58930,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>289</v>
@@ -58962,10 +58956,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>289</v>
@@ -58988,10 +58982,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>289</v>
@@ -59014,10 +59008,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>289</v>
@@ -59467,7 +59461,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -59516,10 +59510,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -59542,10 +59536,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -59568,10 +59562,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -59594,10 +59588,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -59620,10 +59614,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -59646,10 +59640,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -59672,10 +59666,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -59698,10 +59692,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -60151,7 +60145,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -60200,10 +60194,10 @@
     </row>
     <row r="8" ht="18" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -60226,10 +60220,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>727</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -60252,10 +60246,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -60278,10 +60272,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -60304,10 +60298,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -60330,10 +60324,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -60783,7 +60777,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -60832,10 +60826,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -60858,10 +60852,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -60884,10 +60878,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -60910,10 +60904,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -60936,10 +60930,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -60962,10 +60956,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -60988,10 +60982,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -61441,7 +61435,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -61490,10 +61484,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -61516,7 +61510,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>381</v>
@@ -61542,10 +61536,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -61568,10 +61562,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -61594,10 +61588,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -61620,10 +61614,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -62073,7 +62067,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -62122,10 +62116,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -62148,10 +62142,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -62174,10 +62168,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -62200,10 +62194,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -62226,10 +62220,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -62252,10 +62246,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -62278,10 +62272,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -62304,10 +62298,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -62330,10 +62324,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -62356,10 +62350,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>289</v>
@@ -62809,7 +62803,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -62858,10 +62852,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -62884,10 +62878,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -62913,7 +62907,7 @@
         <v>508</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -62935,10 +62929,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -62960,10 +62954,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -62985,10 +62979,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -63010,10 +63004,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -63832,7 +63826,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -63884,7 +63878,7 @@
         <v>400</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -63907,10 +63901,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -63933,10 +63927,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -63959,10 +63953,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -63985,10 +63979,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>783</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -64011,10 +64005,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -64037,10 +64031,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -64063,10 +64057,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -64089,10 +64083,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -64115,10 +64109,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>289</v>
@@ -64568,7 +64562,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -64617,10 +64611,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -64643,10 +64637,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -64669,10 +64663,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -64695,10 +64689,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -64721,10 +64715,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -64747,10 +64741,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -64773,10 +64767,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -64799,10 +64793,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -64825,10 +64819,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -64851,10 +64845,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>289</v>
@@ -64877,10 +64871,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>289</v>
@@ -64903,10 +64897,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>289</v>
@@ -64929,10 +64923,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>289</v>
@@ -65382,7 +65376,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -65431,10 +65425,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -65457,10 +65451,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -65483,10 +65477,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -65509,10 +65503,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -65535,10 +65529,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -65561,10 +65555,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -65587,10 +65581,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -65613,10 +65607,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -65639,10 +65633,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -65665,10 +65659,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>289</v>
@@ -66118,7 +66112,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -66167,10 +66161,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -66193,10 +66187,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -66219,10 +66213,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -66245,10 +66239,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -66271,10 +66265,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -66297,10 +66291,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -66323,10 +66317,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -66349,10 +66343,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -66375,10 +66369,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -66401,10 +66395,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>829</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>289</v>
@@ -66427,10 +66421,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>289</v>
@@ -66880,7 +66874,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -66929,10 +66923,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -66955,10 +66949,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -66981,10 +66975,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -67007,10 +67001,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -67033,10 +67027,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -67059,10 +67053,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -67512,7 +67506,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -67561,10 +67555,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -67587,10 +67581,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -67613,10 +67607,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -67665,10 +67659,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>289</v>
@@ -67691,10 +67685,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>289</v>
@@ -67717,10 +67711,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>289</v>
@@ -67743,10 +67737,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>289</v>
@@ -67769,10 +67763,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>289</v>
@@ -68222,7 +68216,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -68271,10 +68265,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -68297,10 +68291,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>289</v>
@@ -68323,10 +68317,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>289</v>
@@ -68349,10 +68343,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>289</v>
@@ -68747,10 +68741,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>289</v>
@@ -69185,10 +69179,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>847</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>289</v>
@@ -69639,10 +69633,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>328</v>
@@ -69665,16 +69659,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>851</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>290</v>
@@ -69693,16 +69687,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>290</v>
@@ -70347,10 +70341,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>857</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>289</v>
@@ -70402,7 +70396,7 @@
         <v>535</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>289</v>
@@ -70425,10 +70419,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>859</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>289</v>
@@ -70451,10 +70445,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>289</v>
@@ -73976,10 +73970,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>863</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>289</v>
@@ -74005,7 +73999,7 @@
         <v>476</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>289</v>
@@ -74434,7 +74428,7 @@
         <v>471</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>289</v>
@@ -74483,10 +74477,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>289</v>
@@ -75978,7 +75972,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>451</v>
@@ -76819,10 +76813,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>289</v>
@@ -78734,7 +78728,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B3" t="s">
         <v>209</v>
@@ -79308,10 +79302,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>328</v>
@@ -79333,10 +79327,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>874</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>328</v>
@@ -79358,10 +79352,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>328</v>
@@ -79383,10 +79377,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>328</v>
@@ -79408,10 +79402,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>328</v>
@@ -79889,10 +79883,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>328</v>
